--- a/server/overlay-line/specs/overlay_line_spec.xlsx
+++ b/server/overlay-line/specs/overlay_line_spec.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="66">
   <si>
     <t>overlay_line</t>
   </si>
@@ -219,6 +219,9 @@
   </si>
   <si>
     <t>M / N</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -570,773 +573,935 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="53.5703125" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="53.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
         <v>37</v>
       </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>3</v>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>3</v>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
         <v>38</v>
       </c>
-      <c r="D9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>3</v>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
         <v>13</v>
       </c>
-      <c r="D10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>3</v>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
         <v>14</v>
       </c>
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>3</v>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
         <v>15</v>
       </c>
-      <c r="D12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>3</v>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
         <v>39</v>
       </c>
-      <c r="D13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>3</v>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
         <v>40</v>
       </c>
-      <c r="D14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>3</v>
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
         <v>41</v>
       </c>
-      <c r="D15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>3</v>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
         <v>16</v>
       </c>
-      <c r="D16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>3</v>
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
         <v>17</v>
       </c>
-      <c r="D17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>3</v>
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
         <v>18</v>
       </c>
-      <c r="D18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>3</v>
+      <c r="E18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
         <v>42</v>
       </c>
-      <c r="D19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>3</v>
+      <c r="E19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
         <v>19</v>
       </c>
-      <c r="D20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>3</v>
+      <c r="E20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
         <v>20</v>
       </c>
-      <c r="D21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>3</v>
+      <c r="E21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
         <v>21</v>
       </c>
-      <c r="D22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>3</v>
+      <c r="E22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
         <v>22</v>
       </c>
-      <c r="D23" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>3</v>
+      <c r="E23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
         <v>23</v>
       </c>
-      <c r="D24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>3</v>
+      <c r="E24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="D25" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>3</v>
+      <c r="E25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
         <v>43</v>
       </c>
-      <c r="D26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>3</v>
+      <c r="E26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
         <v>25</v>
       </c>
-      <c r="D27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>3</v>
+      <c r="E27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
         <v>26</v>
       </c>
-      <c r="D28" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>3</v>
+      <c r="E28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
         <v>27</v>
       </c>
-      <c r="D29" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>3</v>
+      <c r="E29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
         <v>28</v>
       </c>
-      <c r="D30" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="E30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
-        <v>4</v>
-      </c>
       <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
         <v>30</v>
       </c>
-      <c r="D31" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="E31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
         <v>29</v>
       </c>
-      <c r="B32" t="s">
-        <v>4</v>
-      </c>
       <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
         <v>31</v>
       </c>
-      <c r="D32" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="E32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
         <v>29</v>
       </c>
-      <c r="B33" t="s">
-        <v>4</v>
-      </c>
       <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
         <v>32</v>
       </c>
-      <c r="D33" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="E33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
         <v>29</v>
       </c>
-      <c r="B34" t="s">
-        <v>4</v>
-      </c>
       <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
         <v>33</v>
       </c>
-      <c r="D34" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="E34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
         <v>29</v>
       </c>
-      <c r="B35" t="s">
-        <v>4</v>
-      </c>
       <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
         <v>34</v>
       </c>
-      <c r="D35" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="E35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
         <v>29</v>
       </c>
-      <c r="B36" t="s">
-        <v>4</v>
-      </c>
       <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s">
         <v>35</v>
       </c>
-      <c r="D36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="E36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
         <v>29</v>
       </c>
-      <c r="B37" t="s">
-        <v>4</v>
-      </c>
       <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
         <v>36</v>
       </c>
-      <c r="D37" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="E37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
         <v>29</v>
       </c>
-      <c r="B38" t="s">
-        <v>3</v>
-      </c>
       <c r="C38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" t="s">
         <v>44</v>
       </c>
-      <c r="D38" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="E38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
         <v>29</v>
       </c>
-      <c r="B39" t="s">
-        <v>3</v>
-      </c>
       <c r="C39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" t="s">
         <v>45</v>
       </c>
-      <c r="D39" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="E39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
         <v>29</v>
       </c>
-      <c r="B40" t="s">
-        <v>3</v>
-      </c>
       <c r="C40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" t="s">
         <v>46</v>
       </c>
-      <c r="D40" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="E40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
         <v>29</v>
       </c>
-      <c r="B41" t="s">
-        <v>3</v>
-      </c>
       <c r="C41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" t="s">
         <v>47</v>
       </c>
-      <c r="D41" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="E41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
         <v>29</v>
       </c>
-      <c r="B42" t="s">
-        <v>3</v>
-      </c>
       <c r="C42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" t="s">
         <v>48</v>
       </c>
-      <c r="D42" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="E42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
         <v>49</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>50</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>51</v>
       </c>
-      <c r="D43" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="E43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
         <v>49</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>50</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>52</v>
       </c>
-      <c r="D44" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="E44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
         <v>49</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>53</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>54</v>
       </c>
-      <c r="D45" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="E45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
         <v>49</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>53</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>55</v>
       </c>
-      <c r="D46" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="E46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
         <v>49</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>53</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>56</v>
       </c>
-      <c r="D47" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="E47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
         <v>49</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>53</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>57</v>
       </c>
-      <c r="D48" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="E48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
         <v>49</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>53</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>58</v>
       </c>
-      <c r="D49" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>59</v>
+      <c r="E49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>59</v>
       </c>
       <c r="C50" t="s">
+        <v>59</v>
+      </c>
+      <c r="D50" t="s">
         <v>60</v>
       </c>
-      <c r="D50" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>59</v>
+      <c r="E50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>59</v>
       </c>
       <c r="C51" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51" t="s">
         <v>61</v>
       </c>
-      <c r="D51" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>59</v>
+      <c r="E51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>59</v>
       </c>
       <c r="C52" t="s">
+        <v>59</v>
+      </c>
+      <c r="D52" t="s">
         <v>62</v>
       </c>
-      <c r="D52" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>59</v>
+      <c r="E52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>59</v>
       </c>
       <c r="C53" t="s">
+        <v>59</v>
+      </c>
+      <c r="D53" t="s">
         <v>63</v>
       </c>
-      <c r="D53" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>59</v>
+      <c r="E53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>59</v>
       </c>
       <c r="C54" t="s">
+        <v>59</v>
+      </c>
+      <c r="D54" t="s">
         <v>64</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>6</v>
       </c>
     </row>

--- a/server/overlay-line/specs/overlay_line_spec.xlsx
+++ b/server/overlay-line/specs/overlay_line_spec.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maskx\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces\UET\wi-backend\server\overlay-line\specs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="123">
   <si>
     <t>overlay_line</t>
   </si>
@@ -38,15 +38,9 @@
     <t>Density</t>
   </si>
   <si>
-    <t>Neutron</t>
-  </si>
-  <si>
     <t>overlay_line_specs</t>
   </si>
   <si>
-    <t>{}</t>
-  </si>
-  <si>
     <t>AnaDrill ADN 4.75in Den/Neu Rhof 1.0</t>
   </si>
   <si>
@@ -113,9 +107,6 @@
     <t>CLJOC BASEMENT MATRIX POINT Neu/Den</t>
   </si>
   <si>
-    <t>Sonic</t>
-  </si>
-  <si>
     <t>Halliburton Neut/Sonic Wylie Dtf 189</t>
   </si>
   <si>
@@ -222,16 +213,203 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>ana_ADN475_fresh.json</t>
+  </si>
+  <si>
+    <t>ana_ADN675_fresh.json</t>
+  </si>
+  <si>
+    <t>ana_ADN825_fresh.json</t>
+  </si>
+  <si>
+    <t>ana_CDN65_fresh.json</t>
+  </si>
+  <si>
+    <t>ana_CDN8_fresh.json</t>
+  </si>
+  <si>
+    <t>bh_NEU675_fresh.json</t>
+  </si>
+  <si>
+    <t>bh_NEU825_fresh.json</t>
+  </si>
+  <si>
+    <t>Buckles.json</t>
+  </si>
+  <si>
+    <t>CL_MATRIX_1.json</t>
+  </si>
+  <si>
+    <t>CL_MATRIX_2.json</t>
+  </si>
+  <si>
+    <t>CL_MATRIX_3.json</t>
+  </si>
+  <si>
+    <t>DTmatrix_RhoMatrix.json</t>
+  </si>
+  <si>
+    <t>DTraymer_RHOB_fresh.json</t>
+  </si>
+  <si>
+    <t>DTwylie_RHOB_fresh.json</t>
+  </si>
+  <si>
+    <t>FR_DT_RHOB.json</t>
+  </si>
+  <si>
+    <t>FR_NPHI_RHOB.json</t>
+  </si>
+  <si>
+    <t>GC_velocity.json</t>
+  </si>
+  <si>
+    <t>Hal_DTraymer_Neu_fresh.json</t>
+  </si>
+  <si>
+    <t>Hal_DTwylie_Neu_fresh.json</t>
+  </si>
+  <si>
+    <t>Hal_NEU_RHOB_fresh.json</t>
+  </si>
+  <si>
+    <t>Hal_NEU_RHOB_Salt.json</t>
+  </si>
+  <si>
+    <t>K-Phi_(Decimal)_Ratio.json</t>
+  </si>
+  <si>
+    <t>K-Phi_(%)_Ratio.json</t>
+  </si>
+  <si>
+    <t>PotaThor.json</t>
+  </si>
+  <si>
+    <t>R35_Pittman_(Decimal_Phi).json</t>
+  </si>
+  <si>
+    <t>R35_Pittman_(%_Phi).json</t>
+  </si>
+  <si>
+    <t>R35_Winland_(Decimal_Phi).json</t>
+  </si>
+  <si>
+    <t>R35_Winland_(%_Phi).json</t>
+  </si>
+  <si>
+    <t>ree_CNS374_fresh.json</t>
+  </si>
+  <si>
+    <t>ree_CNS374_salt.json</t>
+  </si>
+  <si>
+    <t>ree_DTwylie_CNS_fresh.json</t>
+  </si>
+  <si>
+    <t>ree_DTwylie_RHOB_fresh.json</t>
+  </si>
+  <si>
+    <t>Sch_DTraymer_TNPH_fresh.json</t>
+  </si>
+  <si>
+    <t>Sch_DTwylie_TNPH_fresh.json</t>
+  </si>
+  <si>
+    <t>Sch_M_N_Mineral_Ident.json</t>
+  </si>
+  <si>
+    <t>Sch_NPHI_RHOB_fresh.json</t>
+  </si>
+  <si>
+    <t>Sch_NPHI_RHOB_salt.json</t>
+  </si>
+  <si>
+    <t>Sch_Por_Lithology_fresh.json</t>
+  </si>
+  <si>
+    <t>Sch_Por_Lithology_salt.json</t>
+  </si>
+  <si>
+    <t>Sch_TNPH_RHOB_fresh.json</t>
+  </si>
+  <si>
+    <t>Sch_TNPH_RHOB_salt.json</t>
+  </si>
+  <si>
+    <t>ss_NEU475_RHOB_fresh.json</t>
+  </si>
+  <si>
+    <t>ss_NEU675_RHOB_fresh.json</t>
+  </si>
+  <si>
+    <t>ss_NEU8_RHOB_fresh.json</t>
+  </si>
+  <si>
+    <t>Umatrix_RhoMatrix.json</t>
+  </si>
+  <si>
+    <t>WA_2420_DEN_Fresh.json</t>
+  </si>
+  <si>
+    <t>WA_2420_DEN_Salt.json</t>
+  </si>
+  <si>
+    <t>WA_2435_DEN_fresh.json</t>
+  </si>
+  <si>
+    <t>WA_2435_DEN_Salt.json</t>
+  </si>
+  <si>
+    <t>WA_2436_DEN_Fresh.json</t>
+  </si>
+  <si>
+    <t>WA_2436_DEN_Salt.json</t>
+  </si>
+  <si>
+    <t>WA_2446_DEN_Fresh.json</t>
+  </si>
+  <si>
+    <t>WA_2446_DEN_Salt.json</t>
+  </si>
+  <si>
+    <t>WA_DTraymer_Neu_fresh.json</t>
+  </si>
+  <si>
+    <t>WA_DTwylie_Neu_fresh.json</t>
+  </si>
+  <si>
+    <t>Porosity / Permeability</t>
+  </si>
+  <si>
+    <t>Perm</t>
+  </si>
+  <si>
+    <t>Phi</t>
+  </si>
+  <si>
+    <t>Reeves Sonic/Density Wyllie Dtf 189</t>
+  </si>
+  <si>
+    <t>Acoustic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -257,8 +435,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -573,10 +752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,12 +763,12 @@
     <col min="2" max="2" width="21.5703125" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="53.5703125" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -601,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -611,14 +790,14 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
+      <c r="C2" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -628,14 +807,14 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>4</v>
+      <c r="C3" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -645,14 +824,14 @@
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>4</v>
+      <c r="C4" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -662,14 +841,14 @@
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
-        <v>4</v>
+      <c r="C5" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -679,14 +858,14 @@
       <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
-        <v>4</v>
+      <c r="C6" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -696,14 +875,14 @@
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" t="s">
-        <v>4</v>
+      <c r="C7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -713,14 +892,14 @@
       <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="C8" t="s">
-        <v>4</v>
+      <c r="C8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -730,14 +909,14 @@
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" t="s">
-        <v>4</v>
+      <c r="C9" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -745,16 +924,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="E10" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -764,14 +943,14 @@
       <c r="B11" t="s">
         <v>3</v>
       </c>
-      <c r="C11" t="s">
-        <v>4</v>
+      <c r="C11" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -779,16 +958,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="C12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -796,16 +975,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="C13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E13" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -813,16 +992,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="C14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -830,16 +1009,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="C15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E15" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -849,14 +1028,14 @@
       <c r="B16" t="s">
         <v>3</v>
       </c>
-      <c r="C16" t="s">
-        <v>4</v>
+      <c r="C16" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>6</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -864,16 +1043,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="C17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -881,16 +1060,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -900,14 +1079,14 @@
       <c r="B19" t="s">
         <v>3</v>
       </c>
-      <c r="C19" t="s">
-        <v>4</v>
+      <c r="C19" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E19" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -917,14 +1096,14 @@
       <c r="B20" t="s">
         <v>3</v>
       </c>
-      <c r="C20" t="s">
-        <v>4</v>
+      <c r="C20" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -932,16 +1111,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
+        <v>122</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E21" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -949,16 +1128,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" t="s">
-        <v>4</v>
+        <v>122</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E22" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -966,16 +1145,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="E23" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -983,16 +1162,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="C24" t="s">
-        <v>4</v>
+        <v>120</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="E24" t="s">
-        <v>6</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1000,16 +1179,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="E25" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1017,16 +1196,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="D26" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E26" t="s">
-        <v>6</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1034,16 +1213,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="C27" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="D27" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="E27" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1051,16 +1230,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="C28" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="D28" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="E28" t="s">
-        <v>6</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1068,16 +1247,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="C29" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="D29" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="E29" t="s">
-        <v>6</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1085,84 +1264,84 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="C30" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="D30" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="E30" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D31" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>6</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D32" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E32" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s">
+        <v>122</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" t="s">
         <v>29</v>
       </c>
-      <c r="C33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" t="s">
-        <v>32</v>
-      </c>
       <c r="E33" t="s">
-        <v>6</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>29</v>
+        <v>122</v>
       </c>
       <c r="C34" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>33</v>
+        <v>121</v>
       </c>
       <c r="E34" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1170,16 +1349,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C35" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="D35" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="E35" t="s">
-        <v>6</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1187,16 +1366,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C36" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="D36" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="E36" t="s">
-        <v>6</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1204,16 +1383,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D37" t="s">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1221,16 +1400,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>29</v>
-      </c>
-      <c r="C38" t="s">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D38" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1238,16 +1417,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39" t="s">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D39" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>6</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1255,16 +1434,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40" t="s">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D40" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="E40" t="s">
-        <v>6</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1272,16 +1451,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>29</v>
-      </c>
-      <c r="C41" t="s">
-        <v>3</v>
+        <v>122</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D41" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E41" t="s">
-        <v>6</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1289,16 +1468,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>29</v>
-      </c>
-      <c r="C42" t="s">
-        <v>3</v>
+        <v>122</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D42" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="E42" t="s">
-        <v>6</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1306,16 +1485,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>49</v>
-      </c>
-      <c r="C43" t="s">
-        <v>50</v>
+        <v>3</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D43" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="E43" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1323,16 +1502,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>49</v>
-      </c>
-      <c r="C44" t="s">
-        <v>50</v>
+        <v>3</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D44" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E44" t="s">
-        <v>6</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1340,16 +1519,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>49</v>
-      </c>
-      <c r="C45" t="s">
-        <v>53</v>
+        <v>3</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D45" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="E45" t="s">
-        <v>6</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1357,16 +1536,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C46" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D46" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E46" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1374,16 +1553,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
-      </c>
-      <c r="C47" t="s">
-        <v>53</v>
+        <v>3</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D47" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="E47" t="s">
-        <v>6</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1391,16 +1570,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
-      </c>
-      <c r="C48" t="s">
-        <v>53</v>
+        <v>3</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D48" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="E48" t="s">
-        <v>6</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -1408,16 +1587,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>49</v>
-      </c>
-      <c r="C49" t="s">
-        <v>53</v>
+        <v>3</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D49" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="E49" t="s">
-        <v>6</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1425,16 +1604,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>59</v>
-      </c>
-      <c r="C50" t="s">
-        <v>59</v>
+        <v>3</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D50" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="E50" t="s">
-        <v>6</v>
+        <v>111</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1442,16 +1621,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>59</v>
-      </c>
-      <c r="C51" t="s">
-        <v>59</v>
+        <v>3</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D51" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="E51" t="s">
-        <v>6</v>
+        <v>112</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1459,16 +1638,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>59</v>
-      </c>
-      <c r="C52" t="s">
-        <v>59</v>
+        <v>3</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D52" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="E52" t="s">
-        <v>6</v>
+        <v>113</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1476,16 +1655,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>59</v>
-      </c>
-      <c r="C53" t="s">
-        <v>59</v>
+        <v>3</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D53" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="E53" t="s">
-        <v>6</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1493,19 +1672,57 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>59</v>
-      </c>
-      <c r="C54" t="s">
-        <v>59</v>
+        <v>3</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D54" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="E54" t="s">
-        <v>6</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>122</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D55" t="s">
+        <v>33</v>
+      </c>
+      <c r="E55" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D56" t="s">
+        <v>32</v>
+      </c>
+      <c r="E56" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:E56">
+    <sortCondition ref="D1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/server/overlay-line/specs/overlay_line_spec.xlsx
+++ b/server/overlay-line/specs/overlay_line_spec.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces\UET\wi-backend\server\overlay-line\specs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maskx\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="122">
   <si>
     <t>overlay_line</t>
   </si>
@@ -35,9 +35,6 @@
     <t>family_group_y</t>
   </si>
   <si>
-    <t>Density</t>
-  </si>
-  <si>
     <t>overlay_line_specs</t>
   </si>
   <si>
@@ -164,21 +161,12 @@
     <t>CLJOC BASEMENT MATRIX POINT Sonic/Den</t>
   </si>
   <si>
-    <t>Porosity</t>
-  </si>
-  <si>
-    <t>Lithology</t>
-  </si>
-  <si>
     <t>Schlum Porosity / Lithology Rhof 1.0</t>
   </si>
   <si>
     <t>Schlum Porosity / Lithology Rhof 1.1</t>
   </si>
   <si>
-    <t>Permeanbility</t>
-  </si>
-  <si>
     <t>Porosity / Permeability Decimal</t>
   </si>
   <si>
@@ -194,9 +182,6 @@
     <t>Porosity / Permeability Winland Decimal_Phi</t>
   </si>
   <si>
-    <t>undefine</t>
-  </si>
-  <si>
     <t>Umatrix / RhoMatrix</t>
   </si>
   <si>
@@ -383,33 +368,38 @@
     <t>Porosity / Permeability</t>
   </si>
   <si>
-    <t>Perm</t>
-  </si>
-  <si>
-    <t>Phi</t>
-  </si>
-  <si>
     <t>Reeves Sonic/Density Wyllie Dtf 189</t>
   </si>
   <si>
-    <t>Acoustic</t>
+    <t>["Apparent Matrix Density","Borehole Fluid Density","Bulk Density","Bulk Density (Array)","Bulk Density Correction","Bulk Density Hydrocarbon Corrected","Core Grain Density","Corrected ZDL Density","Density","Density (kg/m3)","Density Correction","Density Count Rate (PEF)","Density Porosity","Density Porosity Lime","Density Porosity Sand","Density Squared","Fluid Density","Fluid Density Contrast","Gas Density","Grain Density","Matrix Density","Mud Filtrate Density","Oil Density","Resolution Formation Density"]</t>
+  </si>
+  <si>
+    <t>["Neutron Porosity","Neutron Porosity Correction","Neutron Porosity Hydrocarbon Corrected","Neutron Porosity Lime","Neutron Porosity Sand","Neutron Porosity Squared","Compensated Neutron Porosity","Thermal Neutron Porosity","Thermal Neutron Porosity 1"]</t>
+  </si>
+  <si>
+    <t>["Acoustic","Acoustic (us/m)","Acoustic Attenuation Rate","Acoustic Normalization Factor"]</t>
+  </si>
+  <si>
+    <t>["Apparent Matrix Density","Borehole Fluid Density","Bulk Density","Bulk Density(Array)","Bulk Density Correction","Bulk Density Hydrocarbon Corrected","Core Grain Density","Corrected ZDL Density","Density","Density (kg/m3)","Density Correction","Density Count Rate (PEF)","Density Porosity","Density Porosity Lime","Density Porosity Sand","Density Squared","Fluid Density","Fluid Density Contrast","Gas Density","Grain Density","Matrix Density","Mud Filtrate Density","Oil Density","Resolution Formation Density"]</t>
+  </si>
+  <si>
+    <t>["Block Porosity","Compensated Neutron Porosity","Core Porosity","Core Porosity Under Stress (Array)","Density Porosity","Density Porosity Lime","Density Porosity Sand","Effective Porosity","Effective Porosity 1","Fracture Porosity","Fracture porosity cut off value for fracture basement","Isolated Porosity","Net Porosity","Net Porosity","Net Sand Fraction","Neutron Porosity","Neutron Porosity Correction","Neutron Porosity Hydrocarbon Corrected","Neutron Porosity Lime","Neutron Porosity Sand","Neutron Porosity Squared","Open Porosity","Open porosity cut off value","Parallel Porosity","Porosity","Porosity Pc Modeling","Porosity Unclipped","Secondary effective Porosity","Secondary Porosity","Secondary porosity cut off for basement reservoir","Standoff Porosity","Thermal Neutron Porosity","Thermal Neutron Porosity 1","Total Porosity","Total Porosity 1","Vug Porosity"]</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>["Core Permeability","Core Permeability Log10","Core Permeability Vertical","Core Permeability Under Stress (Array)","Average Permeability","Horizontal Permeability","Linear Permeability","Net Permeability","NMR Permeability","Permeability","Vertical Permeability","Permeability Pc Modeling","Permeability (nD)"]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -437,7 +427,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -754,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -768,7 +758,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -780,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -788,16 +778,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>46</v>
+        <v>115</v>
+      </c>
+      <c r="C2" t="s">
+        <v>116</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -805,16 +795,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>46</v>
+        <v>115</v>
+      </c>
+      <c r="C3" t="s">
+        <v>116</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -822,16 +812,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>46</v>
+        <v>115</v>
+      </c>
+      <c r="C4" t="s">
+        <v>116</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -839,16 +829,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>46</v>
+        <v>115</v>
+      </c>
+      <c r="C5" t="s">
+        <v>116</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -856,16 +846,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>46</v>
+        <v>115</v>
+      </c>
+      <c r="C6" t="s">
+        <v>116</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -873,16 +863,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>46</v>
+        <v>115</v>
+      </c>
+      <c r="C7" t="s">
+        <v>116</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -890,16 +880,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>46</v>
+        <v>115</v>
+      </c>
+      <c r="C8" t="s">
+        <v>116</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -907,33 +897,27 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>46</v>
+        <v>115</v>
+      </c>
+      <c r="C9" t="s">
+        <v>116</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" t="s">
-        <v>56</v>
-      </c>
       <c r="D10" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -941,16 +925,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>46</v>
+        <v>115</v>
+      </c>
+      <c r="C11" t="s">
+        <v>116</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -958,16 +942,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C12" t="s">
-        <v>3</v>
+        <v>118</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -975,16 +959,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C13" t="s">
-        <v>3</v>
+        <v>118</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -992,16 +976,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C14" t="s">
-        <v>3</v>
+        <v>118</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1009,16 +993,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C15" t="s">
-        <v>3</v>
+        <v>118</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E15" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1026,16 +1010,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>46</v>
+        <v>115</v>
+      </c>
+      <c r="C16" t="s">
+        <v>116</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1043,33 +1027,27 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C17" t="s">
-        <v>3</v>
+        <v>118</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E17" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" t="s">
-        <v>56</v>
-      </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E18" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1077,16 +1055,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>46</v>
+        <v>115</v>
+      </c>
+      <c r="C19" t="s">
+        <v>116</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E19" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1094,16 +1072,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>46</v>
+        <v>115</v>
+      </c>
+      <c r="C20" t="s">
+        <v>116</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1111,16 +1089,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>122</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>46</v>
+        <v>117</v>
+      </c>
+      <c r="C21" t="s">
+        <v>116</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E21" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1128,33 +1106,27 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>122</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>46</v>
+        <v>117</v>
+      </c>
+      <c r="C22" t="s">
+        <v>116</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E22" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="D23" t="s">
         <v>56</v>
       </c>
-      <c r="C23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" t="s">
-        <v>61</v>
-      </c>
       <c r="E23" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1162,16 +1134,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" t="s">
         <v>119</v>
       </c>
-      <c r="C24" t="s">
-        <v>120</v>
-      </c>
       <c r="D24" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E24" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1179,16 +1151,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>119</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="D25" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E25" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1196,16 +1168,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>119</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E26" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1213,16 +1185,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>119</v>
       </c>
       <c r="C27" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E27" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1230,16 +1202,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>119</v>
       </c>
       <c r="C28" t="s">
+        <v>121</v>
+      </c>
+      <c r="D28" t="s">
         <v>50</v>
       </c>
-      <c r="D28" t="s">
-        <v>54</v>
-      </c>
       <c r="E28" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1247,101 +1219,95 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>119</v>
       </c>
       <c r="C29" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E29" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" t="s">
-        <v>56</v>
-      </c>
       <c r="D30" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E30" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>46</v>
+        <v>117</v>
+      </c>
+      <c r="C31" t="s">
+        <v>118</v>
       </c>
       <c r="D31" t="s">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="E31" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>46</v>
+        <v>115</v>
+      </c>
+      <c r="C32" t="s">
+        <v>116</v>
       </c>
       <c r="D32" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>122</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>46</v>
+        <v>115</v>
+      </c>
+      <c r="C33" t="s">
+        <v>116</v>
       </c>
       <c r="D33" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E33" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C34" t="s">
-        <v>3</v>
+        <v>116</v>
       </c>
       <c r="D34" t="s">
-        <v>121</v>
+        <v>28</v>
       </c>
       <c r="E34" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1349,16 +1315,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>119</v>
       </c>
       <c r="C35" t="s">
-        <v>47</v>
+        <v>120</v>
       </c>
       <c r="D35" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E35" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1366,16 +1332,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" t="s">
+        <v>120</v>
+      </c>
+      <c r="D36" t="s">
         <v>46</v>
       </c>
-      <c r="C36" t="s">
-        <v>47</v>
-      </c>
-      <c r="D36" t="s">
-        <v>49</v>
-      </c>
       <c r="E36" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1383,16 +1349,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>46</v>
+        <v>115</v>
+      </c>
+      <c r="C37" t="s">
+        <v>116</v>
       </c>
       <c r="D37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E37" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1400,16 +1366,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>46</v>
+        <v>115</v>
+      </c>
+      <c r="C38" t="s">
+        <v>116</v>
       </c>
       <c r="D38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E38" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1417,16 +1383,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>46</v>
+        <v>115</v>
+      </c>
+      <c r="C39" t="s">
+        <v>116</v>
       </c>
       <c r="D39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E39" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1434,16 +1400,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>46</v>
+        <v>115</v>
+      </c>
+      <c r="C40" t="s">
+        <v>116</v>
       </c>
       <c r="D40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E40" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1451,16 +1417,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>122</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>46</v>
+        <v>117</v>
+      </c>
+      <c r="C41" t="s">
+        <v>116</v>
       </c>
       <c r="D41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E41" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1468,16 +1434,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>122</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>46</v>
+        <v>117</v>
+      </c>
+      <c r="C42" t="s">
+        <v>116</v>
       </c>
       <c r="D42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E42" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1485,16 +1451,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>3</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>46</v>
+        <v>115</v>
+      </c>
+      <c r="C43" t="s">
+        <v>116</v>
       </c>
       <c r="D43" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E43" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1502,16 +1468,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>3</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>46</v>
+        <v>115</v>
+      </c>
+      <c r="C44" t="s">
+        <v>116</v>
       </c>
       <c r="D44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E44" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1519,33 +1485,27 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>3</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>46</v>
+        <v>115</v>
+      </c>
+      <c r="C45" t="s">
+        <v>116</v>
       </c>
       <c r="D45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E45" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
-        <v>56</v>
-      </c>
-      <c r="C46" t="s">
-        <v>56</v>
-      </c>
       <c r="D46" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E46" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1553,33 +1513,33 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>46</v>
+        <v>115</v>
+      </c>
+      <c r="C47" t="s">
+        <v>116</v>
       </c>
       <c r="D47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E47" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>46</v>
+      <c r="B48" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C48" t="s">
+        <v>116</v>
       </c>
       <c r="D48" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E48" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -1587,16 +1547,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>3</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>46</v>
+        <v>115</v>
+      </c>
+      <c r="C49" t="s">
+        <v>116</v>
       </c>
       <c r="D49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E49" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1604,16 +1564,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>3</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>46</v>
+        <v>115</v>
+      </c>
+      <c r="C50" t="s">
+        <v>116</v>
       </c>
       <c r="D50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E50" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1621,16 +1581,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>3</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>46</v>
+        <v>115</v>
+      </c>
+      <c r="C51" t="s">
+        <v>116</v>
       </c>
       <c r="D51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E51" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1638,16 +1598,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>3</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>46</v>
+        <v>115</v>
+      </c>
+      <c r="C52" t="s">
+        <v>116</v>
       </c>
       <c r="D52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E52" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1655,16 +1615,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>3</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>46</v>
+        <v>115</v>
+      </c>
+      <c r="C53" t="s">
+        <v>116</v>
       </c>
       <c r="D53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E53" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1672,16 +1632,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>3</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>46</v>
+        <v>115</v>
+      </c>
+      <c r="C54" t="s">
+        <v>116</v>
       </c>
       <c r="D54" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E54" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -1689,16 +1649,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>122</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>46</v>
+        <v>117</v>
+      </c>
+      <c r="C55" t="s">
+        <v>116</v>
       </c>
       <c r="D55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E55" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -1706,21 +1666,21 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>122</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>46</v>
+        <v>117</v>
+      </c>
+      <c r="C56" t="s">
+        <v>116</v>
       </c>
       <c r="D56" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E56" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:E56">
-    <sortCondition ref="D1"/>
+    <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/server/overlay-line/specs/overlay_line_spec.xlsx
+++ b/server/overlay-line/specs/overlay_line_spec.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maskx\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces\UET\wi-backend\server\overlay-line\specs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -744,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/server/overlay-line/specs/overlay_line_spec.xlsx
+++ b/server/overlay-line/specs/overlay_line_spec.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces\UET\wi-backend\server\overlay-line\specs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\wi-backend\server\overlay-line\specs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9516"/>
   </bookViews>
   <sheets>
     <sheet name="overlay_line" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="121">
   <si>
     <t>overlay_line</t>
   </si>
@@ -371,25 +371,22 @@
     <t>Reeves Sonic/Density Wyllie Dtf 189</t>
   </si>
   <si>
-    <t>["Apparent Matrix Density","Borehole Fluid Density","Bulk Density","Bulk Density (Array)","Bulk Density Correction","Bulk Density Hydrocarbon Corrected","Core Grain Density","Corrected ZDL Density","Density","Density (kg/m3)","Density Correction","Density Count Rate (PEF)","Density Porosity","Density Porosity Lime","Density Porosity Sand","Density Squared","Fluid Density","Fluid Density Contrast","Gas Density","Grain Density","Matrix Density","Mud Filtrate Density","Oil Density","Resolution Formation Density"]</t>
-  </si>
-  <si>
-    <t>["Neutron Porosity","Neutron Porosity Correction","Neutron Porosity Hydrocarbon Corrected","Neutron Porosity Lime","Neutron Porosity Sand","Neutron Porosity Squared","Compensated Neutron Porosity","Thermal Neutron Porosity","Thermal Neutron Porosity 1"]</t>
-  </si>
-  <si>
-    <t>["Acoustic","Acoustic (us/m)","Acoustic Attenuation Rate","Acoustic Normalization Factor"]</t>
-  </si>
-  <si>
-    <t>["Apparent Matrix Density","Borehole Fluid Density","Bulk Density","Bulk Density(Array)","Bulk Density Correction","Bulk Density Hydrocarbon Corrected","Core Grain Density","Corrected ZDL Density","Density","Density (kg/m3)","Density Correction","Density Count Rate (PEF)","Density Porosity","Density Porosity Lime","Density Porosity Sand","Density Squared","Fluid Density","Fluid Density Contrast","Gas Density","Grain Density","Matrix Density","Mud Filtrate Density","Oil Density","Resolution Formation Density"]</t>
-  </si>
-  <si>
-    <t>["Block Porosity","Compensated Neutron Porosity","Core Porosity","Core Porosity Under Stress (Array)","Density Porosity","Density Porosity Lime","Density Porosity Sand","Effective Porosity","Effective Porosity 1","Fracture Porosity","Fracture porosity cut off value for fracture basement","Isolated Porosity","Net Porosity","Net Porosity","Net Sand Fraction","Neutron Porosity","Neutron Porosity Correction","Neutron Porosity Hydrocarbon Corrected","Neutron Porosity Lime","Neutron Porosity Sand","Neutron Porosity Squared","Open Porosity","Open porosity cut off value","Parallel Porosity","Porosity","Porosity Pc Modeling","Porosity Unclipped","Secondary effective Porosity","Secondary Porosity","Secondary porosity cut off for basement reservoir","Standoff Porosity","Thermal Neutron Porosity","Thermal Neutron Porosity 1","Total Porosity","Total Porosity 1","Vug Porosity"]</t>
-  </si>
-  <si>
     <t>[]</t>
   </si>
   <si>
-    <t>["Core Permeability","Core Permeability Log10","Core Permeability Vertical","Core Permeability Under Stress (Array)","Average Permeability","Horizontal Permeability","Linear Permeability","Net Permeability","NMR Permeability","Permeability","Vertical Permeability","Permeability Pc Modeling","Permeability (nD)"]</t>
+    <t>["Apparent Matrix Density","Borehole Fluid Density","Bulk Density","Bulk Density (Array)","Bulk Density Correction","Bulk Density Hydrocarbon Corrected","Core Grain Density","Corrected ZDL Density","Density Correction","Density Count Rate","Density Porosity","Density Porosity Lime","Density Porosity Sand","Density Squared","Fluid Density","Fluid Density Contrast","Gas Density","Grain Density","Matrix Density","Mud Filtrate Density","Oil Density"]</t>
+  </si>
+  <si>
+    <t>["Neutron Porosity","Neutron Porosity Correction","Neutron Porosity Hydrocarbon Corrected","Neutron Porosity Lime","Neutron Porosity Sand","Neutron Porosity Squared","Compensated Neutron Porosity","Thermal Neutron Porosity"]</t>
+  </si>
+  <si>
+    <t>["Acoustic","Acoustic Attenuation Rate","Acoustic Normalization Factor"]</t>
+  </si>
+  <si>
+    <t>["Block Porosity","Compensated Neutron Porosity","Core Porosity","Core Porosity Under Stress (Array)","Density Porosity","Density Porosity Lime","Density Porosity Sand","Effective Porosity","Fracture Porosity","Fracture porosity cutoff - Fracture Vug Workflow","Isolated Porosity","Net Porosity","Net Porosity","Net Sand Fraction","Neutron Porosity","Neutron Porosity Correction","Neutron Porosity Hydrocarbon Corrected","Neutron Porosity Lime","Neutron Porosity Sand","Neutron Porosity Squared","Open Porosity","Open porosity cutoff - Fracture Vug Workflow","Parallel Porosity","Porosity","Porosity Pc Modeling","Porosity Unclipped","Secondary effective Porosity","Secondary Porosity","Secondary porosity cutoff - Fracture Vug Workflow","Standoff Porosity","Thermal Neutron Porosity","Total Porosity","Vug Porosity"]</t>
+  </si>
+  <si>
+    <t>["Core Permeability","Core Permeability Log10","Core Permeability Vertical","Core Permeability Under Stress (Array)","Average Permeability","Horizontal Permeability","Linear Permeability","Net Permeability","NMR Permeability","Permeability","Vertical Permeability","Permeability Pc Modeling"]</t>
   </si>
 </sst>
 </file>
@@ -425,9 +422,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -744,19 +740,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="53.5703125" customWidth="1"/>
-    <col min="5" max="5" width="37.42578125" customWidth="1"/>
+    <col min="2" max="2" width="67.33203125" customWidth="1"/>
+    <col min="3" max="3" width="103.44140625" customWidth="1"/>
+    <col min="4" max="4" width="53.5546875" customWidth="1"/>
+    <col min="5" max="5" width="37.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>57</v>
       </c>
@@ -773,15 +769,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -790,15 +786,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -807,15 +803,15 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D4" t="s">
         <v>33</v>
@@ -824,15 +820,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
@@ -841,15 +837,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -858,15 +854,15 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D7" t="s">
         <v>24</v>
@@ -875,15 +871,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
@@ -892,15 +888,15 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
@@ -909,7 +905,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -920,15 +916,15 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D11" t="s">
         <v>25</v>
@@ -937,15 +933,15 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D12" t="s">
         <v>44</v>
@@ -954,15 +950,15 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D13" t="s">
         <v>41</v>
@@ -971,15 +967,15 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D14" t="s">
         <v>40</v>
@@ -988,15 +984,15 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D15" t="s">
         <v>42</v>
@@ -1005,15 +1001,15 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D16" t="s">
         <v>23</v>
@@ -1022,15 +1018,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D17" t="s">
         <v>43</v>
@@ -1039,7 +1035,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1050,15 +1046,15 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C19" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D19" t="s">
         <v>34</v>
@@ -1067,15 +1063,15 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D20" t="s">
         <v>10</v>
@@ -1084,15 +1080,15 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D21" t="s">
         <v>27</v>
@@ -1101,15 +1097,15 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C22" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D22" t="s">
         <v>26</v>
@@ -1118,7 +1114,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1129,12 +1125,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C24" t="s">
         <v>119</v>
@@ -1146,7 +1142,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1154,7 +1150,7 @@
         <v>119</v>
       </c>
       <c r="C25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D25" t="s">
         <v>47</v>
@@ -1163,7 +1159,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1171,7 +1167,7 @@
         <v>119</v>
       </c>
       <c r="C26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D26" t="s">
         <v>48</v>
@@ -1180,7 +1176,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1188,7 +1184,7 @@
         <v>119</v>
       </c>
       <c r="C27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D27" t="s">
         <v>49</v>
@@ -1197,7 +1193,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1205,7 +1201,7 @@
         <v>119</v>
       </c>
       <c r="C28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D28" t="s">
         <v>50</v>
@@ -1214,7 +1210,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1222,7 +1218,7 @@
         <v>119</v>
       </c>
       <c r="C29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D29" t="s">
         <v>51</v>
@@ -1231,7 +1227,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1242,15 +1238,15 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C31" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D31" t="s">
         <v>114</v>
@@ -1259,15 +1255,15 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C32" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D32" t="s">
         <v>11</v>
@@ -1276,15 +1272,15 @@
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D33" t="s">
         <v>12</v>
@@ -1293,15 +1289,15 @@
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D34" t="s">
         <v>28</v>
@@ -1310,7 +1306,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1318,7 +1314,7 @@
         <v>119</v>
       </c>
       <c r="C35" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D35" t="s">
         <v>45</v>
@@ -1327,7 +1323,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1335,7 +1331,7 @@
         <v>119</v>
       </c>
       <c r="C36" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D36" t="s">
         <v>46</v>
@@ -1344,15 +1340,15 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C37" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D37" t="s">
         <v>35</v>
@@ -1361,15 +1357,15 @@
         <v>97</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C38" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" t="s">
         <v>36</v>
@@ -1378,15 +1374,15 @@
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D39" t="s">
         <v>37</v>
@@ -1395,15 +1391,15 @@
         <v>93</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C40" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D40" t="s">
         <v>13</v>
@@ -1412,15 +1408,15 @@
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C41" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D41" t="s">
         <v>30</v>
@@ -1429,15 +1425,15 @@
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C42" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D42" t="s">
         <v>29</v>
@@ -1446,15 +1442,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C43" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D43" t="s">
         <v>21</v>
@@ -1463,15 +1459,15 @@
         <v>99</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C44" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D44" t="s">
         <v>39</v>
@@ -1480,15 +1476,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C45" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D45" t="s">
         <v>22</v>
@@ -1497,7 +1493,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1508,15 +1504,15 @@
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C47" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D47" t="s">
         <v>19</v>
@@ -1525,15 +1521,15 @@
         <v>103</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>115</v>
+      <c r="B48" t="s">
+        <v>116</v>
       </c>
       <c r="C48" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D48" t="s">
         <v>20</v>
@@ -1542,15 +1538,15 @@
         <v>104</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C49" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D49" t="s">
         <v>38</v>
@@ -1559,15 +1555,15 @@
         <v>105</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C50" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D50" t="s">
         <v>16</v>
@@ -1576,15 +1572,15 @@
         <v>106</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C51" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D51" t="s">
         <v>17</v>
@@ -1593,15 +1589,15 @@
         <v>107</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C52" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D52" t="s">
         <v>18</v>
@@ -1610,15 +1606,15 @@
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C53" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D53" t="s">
         <v>14</v>
@@ -1627,15 +1623,15 @@
         <v>109</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C54" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D54" t="s">
         <v>15</v>
@@ -1644,15 +1640,15 @@
         <v>110</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C55" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D55" t="s">
         <v>32</v>
@@ -1661,15 +1657,15 @@
         <v>111</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C56" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D56" t="s">
         <v>31</v>
@@ -1680,7 +1676,7 @@
     </row>
   </sheetData>
   <sortState ref="A2:E56">
-    <sortCondition ref="A1"/>
+    <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/server/overlay-line/specs/overlay_line_spec.xlsx
+++ b/server/overlay-line/specs/overlay_line_spec.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\wi-backend\server\overlay-line\specs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThongND\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9516"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800"/>
   </bookViews>
   <sheets>
     <sheet name="overlay_line" sheetId="1" r:id="rId1"/>
@@ -738,21 +738,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="67.33203125" customWidth="1"/>
-    <col min="3" max="3" width="103.44140625" customWidth="1"/>
-    <col min="4" max="4" width="53.5546875" customWidth="1"/>
-    <col min="5" max="5" width="37.44140625" customWidth="1"/>
+    <col min="2" max="2" width="103.42578125" customWidth="1"/>
+    <col min="3" max="3" width="67.28515625" customWidth="1"/>
+    <col min="5" max="5" width="53.5703125" customWidth="1"/>
+    <col min="6" max="6" width="37.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>57</v>
       </c>
@@ -762,178 +762,178 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" t="s">
         <v>33</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" t="s">
         <v>6</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" t="s">
         <v>24</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C8" t="s">
-        <v>117</v>
-      </c>
-      <c r="D8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E8" t="s">
         <v>8</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C9" t="s">
-        <v>117</v>
-      </c>
-      <c r="D9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" t="s">
         <v>9</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>55</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C11" t="s">
-        <v>117</v>
-      </c>
-      <c r="D11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" t="s">
         <v>25</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -943,14 +943,14 @@
       <c r="C12" t="s">
         <v>116</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>44</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -960,14 +960,14 @@
       <c r="C13" t="s">
         <v>116</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>41</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -977,14 +977,14 @@
       <c r="C14" t="s">
         <v>116</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>40</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -994,31 +994,31 @@
       <c r="C15" t="s">
         <v>116</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>42</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C16" t="s">
-        <v>117</v>
-      </c>
-      <c r="D16" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" t="s">
         <v>23</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1028,59 +1028,59 @@
       <c r="C17" t="s">
         <v>116</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>43</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>54</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C19" t="s">
-        <v>117</v>
-      </c>
-      <c r="D19" t="s">
+        <v>116</v>
+      </c>
+      <c r="E19" t="s">
         <v>34</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C20" t="s">
-        <v>117</v>
-      </c>
-      <c r="D20" t="s">
+        <v>116</v>
+      </c>
+      <c r="E20" t="s">
         <v>10</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1090,14 +1090,14 @@
       <c r="C21" t="s">
         <v>117</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>27</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1107,25 +1107,25 @@
       <c r="C22" t="s">
         <v>117</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>26</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>56</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1135,110 +1135,110 @@
       <c r="C24" t="s">
         <v>119</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>113</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C25" t="s">
         <v>119</v>
       </c>
-      <c r="C25" t="s">
-        <v>120</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>47</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" t="s">
         <v>119</v>
       </c>
-      <c r="C26" t="s">
-        <v>120</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>48</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" t="s">
         <v>119</v>
       </c>
-      <c r="C27" t="s">
-        <v>120</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>49</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" t="s">
         <v>119</v>
       </c>
-      <c r="C28" t="s">
-        <v>120</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>50</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" t="s">
         <v>119</v>
       </c>
-      <c r="C29" t="s">
-        <v>120</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>51</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>53</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1248,48 +1248,48 @@
       <c r="C31" t="s">
         <v>116</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>114</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C32" t="s">
-        <v>117</v>
-      </c>
-      <c r="D32" t="s">
+        <v>116</v>
+      </c>
+      <c r="E32" t="s">
         <v>11</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C33" t="s">
-        <v>117</v>
-      </c>
-      <c r="D33" t="s">
+        <v>116</v>
+      </c>
+      <c r="E33" t="s">
         <v>12</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1299,116 +1299,116 @@
       <c r="C34" t="s">
         <v>117</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>28</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" t="s">
         <v>119</v>
       </c>
-      <c r="C35" t="s">
-        <v>115</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>45</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
+        <v>115</v>
+      </c>
+      <c r="C36" t="s">
         <v>119</v>
       </c>
-      <c r="C36" t="s">
-        <v>115</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>46</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C37" t="s">
-        <v>117</v>
-      </c>
-      <c r="D37" t="s">
+        <v>116</v>
+      </c>
+      <c r="E37" t="s">
         <v>35</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C38" t="s">
-        <v>117</v>
-      </c>
-      <c r="D38" t="s">
+        <v>116</v>
+      </c>
+      <c r="E38" t="s">
         <v>36</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C39" t="s">
-        <v>117</v>
-      </c>
-      <c r="D39" t="s">
+        <v>116</v>
+      </c>
+      <c r="E39" t="s">
         <v>37</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C40" t="s">
-        <v>117</v>
-      </c>
-      <c r="D40" t="s">
+        <v>116</v>
+      </c>
+      <c r="E40" t="s">
         <v>13</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1418,14 +1418,14 @@
       <c r="C41" t="s">
         <v>117</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>30</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1435,212 +1435,212 @@
       <c r="C42" t="s">
         <v>117</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>29</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C43" t="s">
-        <v>117</v>
-      </c>
-      <c r="D43" t="s">
+        <v>116</v>
+      </c>
+      <c r="E43" t="s">
         <v>21</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C44" t="s">
-        <v>117</v>
-      </c>
-      <c r="D44" t="s">
+        <v>116</v>
+      </c>
+      <c r="E44" t="s">
         <v>39</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C45" t="s">
-        <v>117</v>
-      </c>
-      <c r="D45" t="s">
+        <v>116</v>
+      </c>
+      <c r="E45" t="s">
         <v>22</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>52</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C47" t="s">
-        <v>117</v>
-      </c>
-      <c r="D47" t="s">
+        <v>116</v>
+      </c>
+      <c r="E47" t="s">
         <v>19</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C48" t="s">
-        <v>117</v>
-      </c>
-      <c r="D48" t="s">
+        <v>116</v>
+      </c>
+      <c r="E48" t="s">
         <v>20</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C49" t="s">
-        <v>117</v>
-      </c>
-      <c r="D49" t="s">
+        <v>116</v>
+      </c>
+      <c r="E49" t="s">
         <v>38</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C50" t="s">
-        <v>117</v>
-      </c>
-      <c r="D50" t="s">
+        <v>116</v>
+      </c>
+      <c r="E50" t="s">
         <v>16</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C51" t="s">
-        <v>117</v>
-      </c>
-      <c r="D51" t="s">
+        <v>116</v>
+      </c>
+      <c r="E51" t="s">
         <v>17</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C52" t="s">
-        <v>117</v>
-      </c>
-      <c r="D52" t="s">
+        <v>116</v>
+      </c>
+      <c r="E52" t="s">
         <v>18</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C53" t="s">
-        <v>117</v>
-      </c>
-      <c r="D53" t="s">
+        <v>116</v>
+      </c>
+      <c r="E53" t="s">
         <v>14</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C54" t="s">
-        <v>117</v>
-      </c>
-      <c r="D54" t="s">
+        <v>116</v>
+      </c>
+      <c r="E54" t="s">
         <v>15</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1650,14 +1650,14 @@
       <c r="C55" t="s">
         <v>117</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>32</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1667,10 +1667,10 @@
       <c r="C56" t="s">
         <v>117</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>31</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>112</v>
       </c>
     </row>

--- a/server/overlay-line/specs/overlay_line_spec.xlsx
+++ b/server/overlay-line/specs/overlay_line_spec.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThongND\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\wi-backend\server\overlay-line\specs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="overlay_line" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -738,21 +738,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="103.42578125" customWidth="1"/>
     <col min="3" max="3" width="67.28515625" customWidth="1"/>
-    <col min="5" max="5" width="53.5703125" customWidth="1"/>
-    <col min="6" max="6" width="37.42578125" customWidth="1"/>
+    <col min="4" max="4" width="53.5703125" customWidth="1"/>
+    <col min="5" max="5" width="37.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>57</v>
       </c>
@@ -762,14 +762,14 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
       <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -779,14 +779,14 @@
       <c r="C2" t="s">
         <v>116</v>
       </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
       <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -796,14 +796,14 @@
       <c r="C3" t="s">
         <v>116</v>
       </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
       <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -813,14 +813,14 @@
       <c r="C4" t="s">
         <v>116</v>
       </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
       <c r="E4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -830,14 +830,14 @@
       <c r="C5" t="s">
         <v>116</v>
       </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
       <c r="E5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -847,14 +847,14 @@
       <c r="C6" t="s">
         <v>116</v>
       </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
       <c r="E6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -864,14 +864,14 @@
       <c r="C7" t="s">
         <v>116</v>
       </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
       <c r="E7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -881,14 +881,14 @@
       <c r="C8" t="s">
         <v>116</v>
       </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
       <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -898,25 +898,25 @@
       <c r="C9" t="s">
         <v>116</v>
       </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
       <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="D10" t="s">
+        <v>55</v>
+      </c>
       <c r="E10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -926,14 +926,14 @@
       <c r="C11" t="s">
         <v>116</v>
       </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
       <c r="E11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -943,14 +943,14 @@
       <c r="C12" t="s">
         <v>116</v>
       </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
       <c r="E12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -960,14 +960,14 @@
       <c r="C13" t="s">
         <v>116</v>
       </c>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
       <c r="E13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -977,14 +977,14 @@
       <c r="C14" t="s">
         <v>116</v>
       </c>
+      <c r="D14" t="s">
+        <v>40</v>
+      </c>
       <c r="E14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -994,14 +994,14 @@
       <c r="C15" t="s">
         <v>116</v>
       </c>
+      <c r="D15" t="s">
+        <v>42</v>
+      </c>
       <c r="E15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1011,14 +1011,14 @@
       <c r="C16" t="s">
         <v>116</v>
       </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
       <c r="E16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1028,25 +1028,25 @@
       <c r="C17" t="s">
         <v>116</v>
       </c>
+      <c r="D17" t="s">
+        <v>43</v>
+      </c>
       <c r="E17" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
+      <c r="D18" t="s">
+        <v>54</v>
+      </c>
       <c r="E18" t="s">
-        <v>54</v>
-      </c>
-      <c r="F18" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1056,14 +1056,14 @@
       <c r="C19" t="s">
         <v>116</v>
       </c>
+      <c r="D19" t="s">
+        <v>34</v>
+      </c>
       <c r="E19" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1073,14 +1073,14 @@
       <c r="C20" t="s">
         <v>116</v>
       </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
       <c r="E20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1090,14 +1090,14 @@
       <c r="C21" t="s">
         <v>117</v>
       </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
       <c r="E21" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1107,25 +1107,25 @@
       <c r="C22" t="s">
         <v>117</v>
       </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
       <c r="E22" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
+      <c r="D23" t="s">
+        <v>56</v>
+      </c>
       <c r="E23" t="s">
-        <v>56</v>
-      </c>
-      <c r="F23" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1135,14 +1135,14 @@
       <c r="C24" t="s">
         <v>119</v>
       </c>
+      <c r="D24" t="s">
+        <v>113</v>
+      </c>
       <c r="E24" t="s">
-        <v>113</v>
-      </c>
-      <c r="F24" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1152,14 +1152,14 @@
       <c r="C25" t="s">
         <v>119</v>
       </c>
+      <c r="D25" t="s">
+        <v>47</v>
+      </c>
       <c r="E25" t="s">
-        <v>47</v>
-      </c>
-      <c r="F25" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1169,14 +1169,14 @@
       <c r="C26" t="s">
         <v>119</v>
       </c>
+      <c r="D26" t="s">
+        <v>48</v>
+      </c>
       <c r="E26" t="s">
-        <v>48</v>
-      </c>
-      <c r="F26" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1186,14 +1186,14 @@
       <c r="C27" t="s">
         <v>119</v>
       </c>
+      <c r="D27" t="s">
+        <v>49</v>
+      </c>
       <c r="E27" t="s">
-        <v>49</v>
-      </c>
-      <c r="F27" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1203,14 +1203,14 @@
       <c r="C28" t="s">
         <v>119</v>
       </c>
+      <c r="D28" t="s">
+        <v>50</v>
+      </c>
       <c r="E28" t="s">
-        <v>50</v>
-      </c>
-      <c r="F28" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1220,25 +1220,25 @@
       <c r="C29" t="s">
         <v>119</v>
       </c>
+      <c r="D29" t="s">
+        <v>51</v>
+      </c>
       <c r="E29" t="s">
-        <v>51</v>
-      </c>
-      <c r="F29" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
+      <c r="D30" t="s">
+        <v>53</v>
+      </c>
       <c r="E30" t="s">
-        <v>53</v>
-      </c>
-      <c r="F30" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1248,14 +1248,14 @@
       <c r="C31" t="s">
         <v>116</v>
       </c>
+      <c r="D31" t="s">
+        <v>114</v>
+      </c>
       <c r="E31" t="s">
-        <v>114</v>
-      </c>
-      <c r="F31" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1265,14 +1265,14 @@
       <c r="C32" t="s">
         <v>116</v>
       </c>
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
       <c r="E32" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1282,14 +1282,14 @@
       <c r="C33" t="s">
         <v>116</v>
       </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
       <c r="E33" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1299,14 +1299,14 @@
       <c r="C34" t="s">
         <v>117</v>
       </c>
+      <c r="D34" t="s">
+        <v>28</v>
+      </c>
       <c r="E34" t="s">
-        <v>28</v>
-      </c>
-      <c r="F34" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1316,14 +1316,14 @@
       <c r="C35" t="s">
         <v>119</v>
       </c>
+      <c r="D35" t="s">
+        <v>45</v>
+      </c>
       <c r="E35" t="s">
-        <v>45</v>
-      </c>
-      <c r="F35" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1333,14 +1333,14 @@
       <c r="C36" t="s">
         <v>119</v>
       </c>
+      <c r="D36" t="s">
+        <v>46</v>
+      </c>
       <c r="E36" t="s">
-        <v>46</v>
-      </c>
-      <c r="F36" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1350,14 +1350,14 @@
       <c r="C37" t="s">
         <v>116</v>
       </c>
+      <c r="D37" t="s">
+        <v>35</v>
+      </c>
       <c r="E37" t="s">
-        <v>35</v>
-      </c>
-      <c r="F37" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1367,14 +1367,14 @@
       <c r="C38" t="s">
         <v>116</v>
       </c>
+      <c r="D38" t="s">
+        <v>36</v>
+      </c>
       <c r="E38" t="s">
-        <v>36</v>
-      </c>
-      <c r="F38" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1384,14 +1384,14 @@
       <c r="C39" t="s">
         <v>116</v>
       </c>
+      <c r="D39" t="s">
+        <v>37</v>
+      </c>
       <c r="E39" t="s">
-        <v>37</v>
-      </c>
-      <c r="F39" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1401,14 +1401,14 @@
       <c r="C40" t="s">
         <v>116</v>
       </c>
+      <c r="D40" t="s">
+        <v>13</v>
+      </c>
       <c r="E40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1418,14 +1418,14 @@
       <c r="C41" t="s">
         <v>117</v>
       </c>
+      <c r="D41" t="s">
+        <v>30</v>
+      </c>
       <c r="E41" t="s">
-        <v>30</v>
-      </c>
-      <c r="F41" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1435,14 +1435,14 @@
       <c r="C42" t="s">
         <v>117</v>
       </c>
+      <c r="D42" t="s">
+        <v>29</v>
+      </c>
       <c r="E42" t="s">
-        <v>29</v>
-      </c>
-      <c r="F42" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1452,14 +1452,14 @@
       <c r="C43" t="s">
         <v>116</v>
       </c>
+      <c r="D43" t="s">
+        <v>21</v>
+      </c>
       <c r="E43" t="s">
-        <v>21</v>
-      </c>
-      <c r="F43" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1469,14 +1469,14 @@
       <c r="C44" t="s">
         <v>116</v>
       </c>
+      <c r="D44" t="s">
+        <v>39</v>
+      </c>
       <c r="E44" t="s">
-        <v>39</v>
-      </c>
-      <c r="F44" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1486,25 +1486,25 @@
       <c r="C45" t="s">
         <v>116</v>
       </c>
+      <c r="D45" t="s">
+        <v>22</v>
+      </c>
       <c r="E45" t="s">
-        <v>22</v>
-      </c>
-      <c r="F45" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
+      <c r="D46" t="s">
+        <v>52</v>
+      </c>
       <c r="E46" t="s">
-        <v>52</v>
-      </c>
-      <c r="F46" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1514,14 +1514,14 @@
       <c r="C47" t="s">
         <v>116</v>
       </c>
+      <c r="D47" t="s">
+        <v>19</v>
+      </c>
       <c r="E47" t="s">
-        <v>19</v>
-      </c>
-      <c r="F47" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1531,14 +1531,14 @@
       <c r="C48" t="s">
         <v>116</v>
       </c>
+      <c r="D48" t="s">
+        <v>20</v>
+      </c>
       <c r="E48" t="s">
-        <v>20</v>
-      </c>
-      <c r="F48" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1548,14 +1548,14 @@
       <c r="C49" t="s">
         <v>116</v>
       </c>
+      <c r="D49" t="s">
+        <v>38</v>
+      </c>
       <c r="E49" t="s">
-        <v>38</v>
-      </c>
-      <c r="F49" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1565,14 +1565,14 @@
       <c r="C50" t="s">
         <v>116</v>
       </c>
+      <c r="D50" t="s">
+        <v>16</v>
+      </c>
       <c r="E50" t="s">
-        <v>16</v>
-      </c>
-      <c r="F50" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1582,14 +1582,14 @@
       <c r="C51" t="s">
         <v>116</v>
       </c>
+      <c r="D51" t="s">
+        <v>17</v>
+      </c>
       <c r="E51" t="s">
-        <v>17</v>
-      </c>
-      <c r="F51" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1599,14 +1599,14 @@
       <c r="C52" t="s">
         <v>116</v>
       </c>
+      <c r="D52" t="s">
+        <v>18</v>
+      </c>
       <c r="E52" t="s">
-        <v>18</v>
-      </c>
-      <c r="F52" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1616,14 +1616,14 @@
       <c r="C53" t="s">
         <v>116</v>
       </c>
+      <c r="D53" t="s">
+        <v>14</v>
+      </c>
       <c r="E53" t="s">
-        <v>14</v>
-      </c>
-      <c r="F53" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1633,14 +1633,14 @@
       <c r="C54" t="s">
         <v>116</v>
       </c>
+      <c r="D54" t="s">
+        <v>15</v>
+      </c>
       <c r="E54" t="s">
-        <v>15</v>
-      </c>
-      <c r="F54" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1650,14 +1650,14 @@
       <c r="C55" t="s">
         <v>117</v>
       </c>
+      <c r="D55" t="s">
+        <v>32</v>
+      </c>
       <c r="E55" t="s">
-        <v>32</v>
-      </c>
-      <c r="F55" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1667,10 +1667,10 @@
       <c r="C56" t="s">
         <v>117</v>
       </c>
+      <c r="D56" t="s">
+        <v>31</v>
+      </c>
       <c r="E56" t="s">
-        <v>31</v>
-      </c>
-      <c r="F56" t="s">
         <v>112</v>
       </c>
     </row>

--- a/server/overlay-line/specs/overlay_line_spec.xlsx
+++ b/server/overlay-line/specs/overlay_line_spec.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\wi-backend\server\overlay-line\specs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Spec_Thuy\overlay line\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9630"/>
   </bookViews>
   <sheets>
     <sheet name="overlay_line" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="122">
   <si>
     <t>overlay_line</t>
   </si>
@@ -387,6 +387,9 @@
   </si>
   <si>
     <t>["Core Permeability","Core Permeability Log10","Core Permeability Vertical","Core Permeability Under Stress (Array)","Average Permeability","Horizontal Permeability","Linear Permeability","Net Permeability","NMR Permeability","Permeability","Vertical Permeability","Permeability Pc Modeling"]</t>
+  </si>
+  <si>
+    <t>["Acoustic","Acoustic Attenuation Rate","Acoustic Normalization Factor","Compressional Slowness","Shear Slowness"]</t>
   </si>
 </sst>
 </file>
@@ -740,13 +743,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="103.42578125" customWidth="1"/>
+    <col min="2" max="2" width="255.42578125" customWidth="1"/>
     <col min="3" max="3" width="67.28515625" customWidth="1"/>
     <col min="4" max="4" width="53.5703125" customWidth="1"/>
     <col min="5" max="5" width="37.42578125" customWidth="1"/>
@@ -938,7 +941,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C12" t="s">
         <v>116</v>
@@ -955,7 +958,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C13" t="s">
         <v>116</v>
@@ -972,7 +975,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C14" t="s">
         <v>116</v>
@@ -989,7 +992,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C15" t="s">
         <v>116</v>
@@ -1023,7 +1026,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C17" t="s">
         <v>116</v>
@@ -1085,7 +1088,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C21" t="s">
         <v>117</v>
@@ -1102,7 +1105,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C22" t="s">
         <v>117</v>
@@ -1243,7 +1246,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C31" t="s">
         <v>116</v>
@@ -1294,7 +1297,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C34" t="s">
         <v>117</v>
@@ -1413,7 +1416,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C41" t="s">
         <v>117</v>
@@ -1430,7 +1433,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C42" t="s">
         <v>117</v>
@@ -1645,7 +1648,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C55" t="s">
         <v>117</v>
@@ -1662,7 +1665,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C56" t="s">
         <v>117</v>
